--- a/resultsAnalysis/data_warehouse/pnl_tables.xlsx
+++ b/resultsAnalysis/data_warehouse/pnl_tables.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23206"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="340" yWindow="0" windowWidth="28420" windowHeight="16160" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28780" windowHeight="16100" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="formulation4v7" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="13">
   <si>
     <t>Formulation 2</t>
   </si>
@@ -56,6 +57,9 @@
   </si>
   <si>
     <t>A, M, D</t>
+  </si>
+  <si>
+    <t>Overlap 7</t>
   </si>
 </sst>
 </file>
@@ -338,6 +342,467 @@
         <a:xfrm>
           <a:off x="11557000" y="3619500"/>
           <a:ext cx="5461000" cy="3251200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="41287700" y="0"/>
+          <a:ext cx="8064500" cy="2400300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="33020000" y="0"/>
+          <a:ext cx="8026400" cy="2374900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="8026400" cy="2362200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8255000" y="0"/>
+          <a:ext cx="8026400" cy="2349500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="24765000" y="0"/>
+          <a:ext cx="8039100" cy="2349500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="33020000" y="2857500"/>
+          <a:ext cx="8001000" cy="2311400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="41275000" y="2857500"/>
+          <a:ext cx="8001000" cy="2349500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="2857500"/>
+          <a:ext cx="8001000" cy="2349500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8255000" y="2857500"/>
+          <a:ext cx="8001000" cy="2324100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16510000" y="190500"/>
+          <a:ext cx="8013700" cy="2349500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16510000" y="2857500"/>
+          <a:ext cx="8001000" cy="2336800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="24765000" y="2857500"/>
+          <a:ext cx="8026400" cy="2362200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -714,8 +1179,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -870,4 +1335,35 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="AH31" sqref="AH31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/resultsAnalysis/data_warehouse/pnl_tables.xlsx
+++ b/resultsAnalysis/data_warehouse/pnl_tables.xlsx
@@ -72,6 +72,7 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -803,6 +804,44 @@
         <a:xfrm>
           <a:off x="24765000" y="2857500"/>
           <a:ext cx="8026400" cy="2362200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>69</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="49530000" y="2857500"/>
+          <a:ext cx="8026400" cy="2336800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1341,8 +1380,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
-      <selection activeCell="AH31" sqref="AH31"/>
+    <sheetView tabSelected="1" topLeftCell="BD1" workbookViewId="0">
+      <selection activeCell="BN9" sqref="BN9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
